--- a/WSC/Test Cases/Rewards and Achievements/Rewards and Achievements.xlsx
+++ b/WSC/Test Cases/Rewards and Achievements/Rewards and Achievements.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="91">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -50,14 +50,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Test URL</t>
     </r>
     <r>
@@ -68,7 +60,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> :-  https://soulwsc.eduleadonline.com
+      <t xml:space="preserve"> :-  wscdemo.eduleadonline.com
 </t>
     </r>
   </si>
@@ -84,8 +76,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">:- eduadmin@gmail.com
-</t>
+      <t xml:space="preserve">:- eduadmin@gmail.com, </t>
     </r>
     <r>
       <rPr>
@@ -106,8 +97,97 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:- admin</t>
+      <t xml:space="preserve">:- erp@123
+</t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User Id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:- Trainer@gmail.com,  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:- erp@123
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User Id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:- Student@gmail.com, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:- erp@123</t>
+    </r>
+  </si>
+  <si>
+    <t>`</t>
   </si>
   <si>
     <t>Test Scenario</t>
@@ -153,6 +233,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">click on </t>
     </r>
     <r>
@@ -269,6 +356,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">this is a text field and the value is auto-fetched the moment user clicks on </t>
     </r>
     <r>
@@ -313,6 +407,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">this is a text field and the value is auto-fetched the moment user clicks on </t>
     </r>
     <r>
@@ -353,12 +454,6 @@
     <t xml:space="preserve"> Trainer can Read, Write, Create but cannot Select, Delete, Submit, cancel, Amend</t>
   </si>
   <si>
-    <t>Login As Academics User</t>
-  </si>
-  <si>
-    <t>Academics User can Read, Write, Create, Delete but cannot Select, Submit, cancel, Amend</t>
-  </si>
-  <si>
     <t>Login As Student</t>
   </si>
   <si>
@@ -399,21 +494,6 @@
   </si>
   <si>
     <t xml:space="preserve">when user try to login as Trainer but with blank credentials 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When user try to login as Academics User with all the valid credentials 
-</t>
-  </si>
-  <si>
-    <t>Academics User should hav e Read, Write, Create, Delete so they can view or modify &amp; create new record and can also delete the existing or created record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">when user try to login as Academics User with all the invalid credentials 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">when user try to login as Academics User but with blank credentials 
 </t>
   </si>
   <si>
@@ -1174,7 +1254,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1243,15 +1323,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1265,19 +1339,27 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="49" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1852,10 +1934,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1906,38 +1988,38 @@
       <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="45" spans="1:6">
+    <row r="7" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A7" s="9">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="30" spans="1:6">
+    <row r="8" s="1" customFormat="1" ht="45" spans="1:6">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="3:6">
-      <c r="C9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -1947,7 +2029,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1959,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1971,7 +2053,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1983,7 +2065,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:2">
@@ -1991,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:2">
@@ -1999,7 +2081,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:2">
@@ -2007,7 +2089,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:2">
@@ -2015,7 +2097,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:2">
@@ -2027,22 +2109,22 @@
     </row>
     <row r="20" s="1" customFormat="1" spans="1:6">
       <c r="A20" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:6">
@@ -2050,10 +2132,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="24"/>
@@ -2064,10 +2146,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="24"/>
@@ -2078,10 +2160,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="24"/>
@@ -2090,10 +2172,10 @@
     <row r="24" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:6">
       <c r="A24" s="29"/>
       <c r="B24" s="28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="24"/>
@@ -2104,22 +2186,22 @@
         <v>4</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="32" t="s">
         <v>36</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A26" s="33"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="24"/>
@@ -2130,22 +2212,22 @@
         <v>5</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="32" t="s">
         <v>39</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A28" s="33"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="24"/>
@@ -2156,22 +2238,22 @@
         <v>6</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="32" t="s">
         <v>42</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A30" s="33"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="24"/>
@@ -2182,239 +2264,239 @@
         <v>7</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A32" s="33"/>
+      <c r="A32" s="32"/>
       <c r="B32" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>34</v>
+        <v>46</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>35</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A33" s="35">
+      <c r="A33" s="33">
         <v>8</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A34" s="36"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A35" s="37">
+      <c r="A35" s="35">
         <v>9</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A36" s="37">
+      <c r="A36" s="35">
         <v>10</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A37" s="38">
+      <c r="A37" s="36">
         <v>11</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A38" s="39">
+      <c r="A38" s="36">
         <v>12</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A39" s="39">
+      <c r="A39" s="36">
         <v>13</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:6">
-      <c r="A40" s="37"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:6">
-      <c r="A41" s="37"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
+        <v>60</v>
+      </c>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:6">
-      <c r="A42" s="37"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
     </row>
     <row r="43" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A43" s="37">
+      <c r="A43" s="35">
         <v>14</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
     </row>
     <row r="44" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A44" s="37">
+      <c r="A44" s="35">
         <v>15</v>
       </c>
       <c r="B44" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="30" t="s">
         <v>62</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>61</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A45" s="41">
+      <c r="A45" s="35">
         <v>16</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
     </row>
     <row r="46" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A46" s="42">
+      <c r="A46" s="45">
         <v>17</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:6">
-      <c r="A47" s="42">
+      <c r="A47" s="45">
         <v>18</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:6">
-      <c r="A48" s="42"/>
-      <c r="B48" s="43"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="46"/>
       <c r="C48" s="30"/>
       <c r="D48" s="4"/>
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:6">
-      <c r="A49" s="41"/>
-      <c r="B49" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="1:6">
-      <c r="A50" s="41"/>
+      <c r="A50" s="35"/>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
       <c r="D50" s="4"/>
@@ -2422,133 +2504,126 @@
       <c r="F50" s="24"/>
     </row>
     <row r="51" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A51" s="41">
+      <c r="A51" s="35">
         <v>19</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="24"/>
       <c r="F51" s="24"/>
     </row>
     <row r="52" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A52" s="41">
+      <c r="A52" s="35">
         <v>20</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="24"/>
       <c r="F52" s="24"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A53" s="41">
+      <c r="A53" s="35">
         <v>21</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:6">
-      <c r="A54" s="41">
+      <c r="A54" s="35">
         <v>22</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="24"/>
       <c r="F54" s="24"/>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:6">
-      <c r="A55" s="41"/>
+      <c r="A55" s="35"/>
       <c r="B55" s="22"/>
-      <c r="C55" s="44"/>
+      <c r="C55" s="48"/>
       <c r="D55" s="6"/>
       <c r="E55" s="24"/>
       <c r="F55" s="24"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:5">
-      <c r="A56" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B56" s="46"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
+      <c r="A56" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
     </row>
     <row r="57" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A57" s="47">
+      <c r="A57" s="51">
         <v>23</v>
       </c>
-      <c r="B57" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="49" t="s">
+      <c r="B57" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="50"/>
+      <c r="C57" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="54"/>
     </row>
     <row r="58" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A58" s="47">
+      <c r="A58" s="51">
         <v>24</v>
       </c>
-      <c r="B58" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" s="49" t="s">
+      <c r="B58" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="50"/>
+      <c r="C58" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="54"/>
     </row>
     <row r="59" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A59" s="47">
-        <v>25</v>
-      </c>
-      <c r="B59" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C59" s="49" t="s">
+      <c r="A59" s="51">
+        <v>26</v>
+      </c>
+      <c r="B59" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="50"/>
-    </row>
-    <row r="60" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A60" s="47">
-        <v>26</v>
-      </c>
-      <c r="B60" s="51" t="s">
+      <c r="C59" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="50"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="54"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="1:5">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:5">
       <c r="A61" s="2"/>
@@ -2558,172 +2633,132 @@
       <c r="E61" s="2"/>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:5">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" s="1" customFormat="1" spans="1:5">
-      <c r="A63" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B63" s="19" t="s">
+      <c r="A62" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="B62" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="C62" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="D62" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A63" s="56">
+        <v>27</v>
+      </c>
+      <c r="B63" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" s="58"/>
+      <c r="E63" s="59"/>
     </row>
     <row r="64" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A64" s="52">
-        <v>27</v>
-      </c>
-      <c r="B64" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="C64" s="54" t="s">
+      <c r="A64" s="60"/>
+      <c r="B64" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="D64" s="54"/>
-      <c r="E64" s="55"/>
+      <c r="C64" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="62"/>
+      <c r="E64" s="18"/>
     </row>
     <row r="65" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A65" s="56"/>
-      <c r="B65" s="57" t="s">
+      <c r="A65" s="60"/>
+      <c r="B65" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="62"/>
+      <c r="E65" s="18"/>
+    </row>
+    <row r="66" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A66" s="60">
+        <v>28</v>
+      </c>
+      <c r="B66" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+    </row>
+    <row r="67" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A67" s="60"/>
+      <c r="B67" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="62" t="s">
         <v>80</v>
-      </c>
-      <c r="C65" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="D65" s="58"/>
-      <c r="E65" s="18"/>
-    </row>
-    <row r="66" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A66" s="56"/>
-      <c r="B66" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="C66" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="D66" s="58"/>
-      <c r="E66" s="18"/>
-    </row>
-    <row r="67" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A67" s="56">
-        <v>28</v>
-      </c>
-      <c r="B67" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="C67" s="58" t="s">
-        <v>85</v>
       </c>
       <c r="D67" s="18"/>
       <c r="E67" s="18"/>
     </row>
     <row r="68" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A68" s="56"/>
-      <c r="B68" s="57" t="s">
+      <c r="A68" s="60"/>
+      <c r="B68" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="58" t="s">
-        <v>81</v>
+      <c r="C68" s="62" t="s">
+        <v>82</v>
       </c>
       <c r="D68" s="18"/>
       <c r="E68" s="18"/>
     </row>
-    <row r="69" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A69" s="56"/>
-      <c r="B69" s="57" t="s">
+    <row r="69" ht="30" spans="1:5">
+      <c r="A69" s="60">
+        <v>30</v>
+      </c>
+      <c r="B69" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="C69" s="58" t="s">
-        <v>83</v>
+      <c r="C69" s="62" t="s">
+        <v>88</v>
       </c>
       <c r="D69" s="18"/>
       <c r="E69" s="18"/>
     </row>
-    <row r="70" s="1" customFormat="1" ht="45" spans="1:5">
-      <c r="A70" s="56">
-        <v>29</v>
-      </c>
-      <c r="B70" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="C70" s="58" t="s">
+    <row r="70" ht="30" spans="1:5">
+      <c r="A70" s="60"/>
+      <c r="B70" s="61" t="s">
         <v>89</v>
+      </c>
+      <c r="C70" s="62" t="s">
+        <v>80</v>
       </c>
       <c r="D70" s="18"/>
       <c r="E70" s="18"/>
     </row>
-    <row r="71" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A71" s="56"/>
-      <c r="B71" s="57" t="s">
+    <row r="71" ht="30" spans="1:5">
+      <c r="A71" s="60"/>
+      <c r="B71" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C71" s="58" t="s">
-        <v>81</v>
+      <c r="C71" s="62" t="s">
+        <v>82</v>
       </c>
       <c r="D71" s="18"/>
       <c r="E71" s="18"/>
     </row>
-    <row r="72" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A72" s="56"/>
-      <c r="B72" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="C72" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-    </row>
-    <row r="73" ht="30" spans="1:5">
-      <c r="A73" s="56">
-        <v>30</v>
-      </c>
-      <c r="B73" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="C73" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-    </row>
-    <row r="74" ht="30" spans="1:5">
-      <c r="A74" s="56"/>
-      <c r="B74" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="C74" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-    </row>
-    <row r="75" ht="30" spans="1:5">
-      <c r="A75" s="56"/>
-      <c r="B75" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="C75" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B49:F49"/>
     <mergeCell ref="A56:E56"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
@@ -2731,10 +2766,9 @@
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A69:A71"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
